--- a/mail_sender/excel-reader-test.xlsx
+++ b/mail_sender/excel-reader-test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajn/PycharmProjects/TaaraMail/mail_sender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA909FBC-A0C2-534B-ADB1-94901BA56A15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788FBBB2-5937-7F4B-9C40-45D7076B32CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{BB956867-4E80-2549-9E3C-F98421C8FBD8}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
